--- a/images/Project managemnet Dashboard.xlsx
+++ b/images/Project managemnet Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Data Analysis\Main Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF9315-9EAF-4D73-83BF-AD9654E307A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18FB4E-E583-466F-8757-DAED29326735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{7C39F5AF-931C-4C0E-9E3D-5DF26B0D31B8}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -2207,7 +2207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFD905F9-53B8-4F62-B471-4A3C115275DA}" type="CELLRANGE">
+                    <a:fld id="{10B2274F-1542-44B3-BF19-8F87D8B2187D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2240,7 +2240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E13FFADA-A760-4030-B857-F22987BE6B6E}" type="CELLRANGE">
+                    <a:fld id="{7687AFE7-F4E0-4B62-9F7F-063C37F63D24}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2274,7 +2274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D134FD1A-B8FD-4675-8060-8F8F70DBD0C5}" type="CELLRANGE">
+                    <a:fld id="{1FDE3C65-BE07-43C4-93F8-0A5518AE81A6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2308,7 +2308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BEE8F1F-5B4A-4D39-BB92-2C7F1B6CFD9F}" type="CELLRANGE">
+                    <a:fld id="{CEC76B23-2685-4393-A148-A51FE4F66BC0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2342,7 +2342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B53EB2E0-0917-40B5-9D04-99811D4696DF}" type="CELLRANGE">
+                    <a:fld id="{8F13B960-76C7-45EA-84EA-EA46DEA0B85A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14034,7 +14034,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14371,6 +14371,9 @@
       <c r="C20">
         <f>GETPIVOTDATA(""&amp;C$17,'Pivot Tables'!$A$3,"Month",""&amp;$A20)</f>
         <v>14917</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
       </c>
       <c r="F20" t="str">
         <v>MAR</v>
@@ -14577,7 +14580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7297750D-8DE5-4600-BA7E-2B33188E4A53}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -15883,7 +15886,7 @@
   <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
